--- a/vq_expiriments.xlsx
+++ b/vq_expiriments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>test1</t>
   </si>
@@ -195,14 +195,42 @@
   </si>
   <si>
     <t>Skiped P</t>
+  </si>
+  <si>
+    <t>VQ vs JM</t>
+  </si>
+  <si>
+    <t>average VQ vs JM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VQ </t>
+  </si>
+  <si>
+    <t>VQ Enc</t>
+  </si>
+  <si>
+    <t>JM Enc</t>
+  </si>
+  <si>
+    <t>VQ Dec</t>
+  </si>
+  <si>
+    <t>JM Dec</t>
+  </si>
+  <si>
+    <t>tranqu overhead</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -234,14 +262,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -257,6 +287,279 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Encoder</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>VQ</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>JM</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$G$5,Φύλλο1!$G$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>548.39800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.97200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="60852224"/>
+        <c:axId val="46779776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="60852224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46779776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46779776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60852224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Decoder</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>VQ</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>JM</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$G$7,Φύλλο1!$G$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.3000000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="79756800"/>
+        <c:axId val="134586368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79756800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134586368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134586368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79756800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="el-GR"/>
@@ -383,7 +686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Φύλλο2!$O$11:$O$15</c:f>
+              <c:f>Φύλλο2!$N$18:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -443,26 +746,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>101.656576</c:v>
+                  <c:v>115.183584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.559488000000002</c:v>
+                  <c:v>75.658749081600007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.172799999999995</c:v>
+                  <c:v>104.0335085568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>327.54229248000001</c:v>
+                  <c:v>359.50003107839996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.645311999999997</c:v>
+                  <c:v>46.358501555199993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -471,11 +773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52104704"/>
-        <c:axId val="91287488"/>
+        <c:axId val="110973440"/>
+        <c:axId val="96893120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52104704"/>
+        <c:axId val="110973440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91287488"/>
+        <c:crossAx val="96893120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -512,7 +814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91287488"/>
+        <c:axId val="96893120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52104704"/>
+        <c:crossAx val="110973440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,6 +877,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Γράφημα 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -896,27 +1263,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>38.798999999999999</v>
+      </c>
+      <c r="C5">
+        <v>158.68100000000001</v>
+      </c>
+      <c r="D5">
+        <v>355.41800000000001</v>
+      </c>
+      <c r="E5">
+        <v>4.5</v>
+      </c>
+      <c r="G5">
+        <f>SUM(B5:D5)-E5</f>
+        <v>548.39800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6">
+        <v>1.542</v>
+      </c>
+      <c r="C6">
+        <v>33.71</v>
+      </c>
+      <c r="D6">
+        <v>118.72</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G8" si="0">SUM(B6:D6)-E6</f>
+        <v>153.97200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G7">
+        <f>SUM(B7:D7)-E7</f>
+        <v>6.3000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +1412,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
@@ -947,13 +1423,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -964,7 +1440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1002,7 +1478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,15 +1514,15 @@
         <v>334</v>
       </c>
       <c r="K4" s="1">
-        <f>B4*H4</f>
+        <f t="shared" ref="K4:M8" si="0">B4*H4</f>
         <v>7459789.7999999998</v>
       </c>
       <c r="L4" s="1">
-        <f>C4*I4</f>
+        <f t="shared" si="0"/>
         <v>37457432</v>
       </c>
       <c r="M4" s="1">
-        <f>D4*J4</f>
+        <f t="shared" si="0"/>
         <v>112721994</v>
       </c>
       <c r="N4" s="1">
@@ -1054,7 +1530,7 @@
         <v>157.63921580000002</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1547,7 @@
         <v>249277</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E8" si="0">832*480</f>
+        <f t="shared" ref="E5:E8" si="1">832*480</f>
         <v>399360</v>
       </c>
       <c r="G5" s="1">
@@ -1090,23 +1566,23 @@
         <v>200</v>
       </c>
       <c r="K5" s="1">
-        <f>B5*H5</f>
+        <f t="shared" si="0"/>
         <v>5223500</v>
       </c>
       <c r="L5" s="1">
-        <f>C5*I5</f>
+        <f t="shared" si="0"/>
         <v>24376240</v>
       </c>
       <c r="M5" s="1">
-        <f>D5*J5</f>
+        <f t="shared" si="0"/>
         <v>49855400</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N8" si="1">SUM(K5,L5,M5)/10^6</f>
+        <f t="shared" ref="N5:N8" si="2">SUM(K5,L5,M5)/10^6</f>
         <v>79.45514</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1599,7 @@
         <v>270426</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>399360</v>
       </c>
       <c r="G6" s="1">
@@ -1142,23 +1618,23 @@
         <v>334</v>
       </c>
       <c r="K6" s="1">
-        <f>B6*H6</f>
+        <f t="shared" si="0"/>
         <v>12590363.799999999</v>
       </c>
       <c r="L6" s="1">
-        <f>C6*I6</f>
+        <f t="shared" si="0"/>
         <v>48447902.399999999</v>
       </c>
       <c r="M6" s="1">
-        <f>D6*J6</f>
+        <f t="shared" si="0"/>
         <v>90322284</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151.36055019999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1194,23 +1670,23 @@
         <v>160</v>
       </c>
       <c r="K7" s="1">
-        <f>B7*H7</f>
+        <f t="shared" si="0"/>
         <v>26448464</v>
       </c>
       <c r="L7" s="1">
-        <f>C7*I7</f>
+        <f t="shared" si="0"/>
         <v>103449344</v>
       </c>
       <c r="M7" s="1">
-        <f>D7*J7</f>
+        <f t="shared" si="0"/>
         <v>271871520</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>401.76932799999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1703,7 @@
         <v>182903</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>399360</v>
       </c>
       <c r="G8" s="1">
@@ -1246,23 +1722,23 @@
         <v>200.66666666666666</v>
       </c>
       <c r="K8" s="1">
-        <f>B8*H8</f>
+        <f t="shared" si="0"/>
         <v>2663850</v>
       </c>
       <c r="L8" s="1">
-        <f>C8*I8</f>
+        <f t="shared" si="0"/>
         <v>10577220.266666666</v>
       </c>
       <c r="M8" s="1">
-        <f>D8*J8</f>
+        <f t="shared" si="0"/>
         <v>36702535.333333328</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.943605599999991</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -1284,27 +1760,24 @@
       <c r="N10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>H4*E4/16-16*G11</f>
         <v>833664</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>H4*E4*0.5/16-16*G11</f>
         <v>416832</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>(I4+J4)*E4/16-16*H11</f>
         <v>8646112</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>0.5*(I4+J4)*E4/16-16*H11</f>
         <v>2810464</v>
       </c>
@@ -1317,31 +1790,27 @@
       </c>
       <c r="N11" s="1">
         <f>16*(B21*B11+C21*C11+D21*D11+E21*E11)/10^6</f>
-        <v>101.656576</v>
-      </c>
-      <c r="O11" s="1">
-        <f>16*(F21*B11+G21*C11+H21*D11+I21*E11)/10^6</f>
-        <v>142.09276833587199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115.183584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
-        <f t="shared" ref="B12:B15" si="2">H5*E5/16-16*G12</f>
+      <c r="B12" s="3">
+        <f t="shared" ref="B12:B15" si="3">H5*E5/16-16*G12</f>
         <v>499200</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:C15" si="3">H5*E5*0.5/16-16*G12</f>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:C15" si="4">H5*E5*0.5/16-16*G12</f>
         <v>249600</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:D15" si="4">(I5+J5)*E5/16-16*H12</f>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D15" si="5">(I5+J5)*E5/16-16*H12</f>
         <v>5532768</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" ref="E12:E15" si="5">0.5*(I5+J5)*E5/16-16*H12</f>
+      <c r="E12" s="3">
+        <f t="shared" ref="E12:E15" si="6">0.5*(I5+J5)*E5/16-16*H12</f>
         <v>2038368</v>
       </c>
       <c r="G12" s="1">
@@ -1353,31 +1822,27 @@
       </c>
       <c r="N12" s="1">
         <f>16*(B22*B12+C22*C12+D22*D12+E22*E12)/10^6</f>
-        <v>66.559488000000002</v>
-      </c>
-      <c r="O12" s="1">
-        <f>16*(F22*B12+G22*C12+H22*D12+I22*E12)/10^6</f>
-        <v>93.049750342655997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>75.658749081600007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
-        <f t="shared" si="2"/>
+      <c r="B13" s="3">
+        <f t="shared" si="3"/>
         <v>833664</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="3"/>
+      <c r="C13" s="3">
+        <f t="shared" si="4"/>
         <v>416832</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="4"/>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
         <v>8053376</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="5"/>
+      <c r="E13" s="3">
+        <f t="shared" si="6"/>
         <v>2217728</v>
       </c>
       <c r="G13" s="1">
@@ -1388,32 +1853,28 @@
         <v>226120</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13:N15" si="6">16*(B23*B13+C23*C13+D23*D13+E23*E13)/10^6</f>
-        <v>92.172799999999995</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13:O15" si="7">16*(F23*B13+G23*C13+H23*D13+I23*E13)/10^6</f>
-        <v>128.81204880895999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N13:N15" si="7">16*(B23*B13+C23*C13+D23*D13+E23*E13)/10^6</f>
+        <v>104.0335085568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
-        <f t="shared" si="2"/>
+      <c r="B14" s="3">
+        <f t="shared" si="3"/>
         <v>2073600</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="3"/>
+      <c r="C14" s="3">
+        <f t="shared" si="4"/>
         <v>1036800</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="4"/>
+      <c r="D14" s="3">
+        <f t="shared" si="5"/>
         <v>25386432</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="5"/>
+      <c r="E14" s="3">
+        <f t="shared" si="6"/>
         <v>10871232</v>
       </c>
       <c r="G14" s="1">
@@ -1424,32 +1885,28 @@
         <v>227748</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="6"/>
-        <v>327.54229248000001</v>
-      </c>
-      <c r="O14" s="1">
         <f t="shared" si="7"/>
-        <v>440.38156677734401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>359.50003107839996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" si="2"/>
+      <c r="B15" s="3">
+        <f t="shared" si="3"/>
         <v>500864</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="3"/>
+      <c r="C15" s="3">
+        <f t="shared" si="4"/>
         <v>250432</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="4"/>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
         <v>3980208</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="5"/>
+      <c r="E15" s="3">
+        <f t="shared" si="6"/>
         <v>474160</v>
       </c>
       <c r="G15" s="1">
@@ -1459,18 +1916,29 @@
         <v>189493</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="6"/>
-        <v>41.645311999999997</v>
-      </c>
-      <c r="O15" s="1">
         <f t="shared" si="7"/>
-        <v>58.160359586303997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46.358501555199993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="N17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <f>16*(F21*B11+G21*C11+H21*D11+I21*E11)/10^6</f>
+        <v>142.09276833587199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <f>16*(F22*B12+G22*C12+H22*D12+I22*E12)/10^6</f>
+        <v>93.049750342655997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1495,24 +1963,28 @@
       <c r="I20" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N20" s="1">
+        <f>16*(F23*B13+G23*C13+H23*D13+I23*E13)/10^6</f>
+        <v>128.81204880895999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F21" s="3">
         <v>0.712229</v>
       </c>
       <c r="G21" s="1">
@@ -1524,24 +1996,28 @@
       <c r="I21" s="1">
         <v>0.707785</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N21" s="1">
+        <f>16*(F24*B14+G24*C14+H24*D14+I24*E14)/10^6</f>
+        <v>440.38156677734401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F22" s="3">
         <v>0.712229</v>
       </c>
       <c r="G22" s="1">
@@ -1553,24 +2029,28 @@
       <c r="I22" s="1">
         <v>0.707785</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <f>16*(F25*B15+G25*C15+H25*D15+I25*E15)/10^6</f>
+        <v>58.160359586303997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F23" s="3">
         <v>0.712229</v>
       </c>
       <c r="G23" s="1">
@@ -1583,23 +2063,23 @@
         <v>0.707785</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F24" s="3">
         <v>0.712229</v>
       </c>
       <c r="G24" s="1">
@@ -1611,24 +2091,30 @@
       <c r="I24" s="1">
         <v>0.707785</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="B25" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="F25" s="3">
         <v>0.712229</v>
       </c>
       <c r="G25" s="1">
@@ -1639,6 +2125,38 @@
       </c>
       <c r="I25" s="1">
         <v>0.707785</v>
+      </c>
+      <c r="N25" s="1">
+        <f>100-N11/N4*100</f>
+        <v>26.932151105004436</v>
+      </c>
+      <c r="O25" s="1">
+        <f>AVERAGE(N25:N29)</f>
+        <v>16.135405135702278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="1">
+        <f t="shared" ref="N26:N29" si="8">100-N12/N5*100</f>
+        <v>4.7780306200454703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="1">
+        <f t="shared" si="8"/>
+        <v>31.267752119468696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="1">
+        <f t="shared" si="8"/>
+        <v>10.520787420985016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="1">
+        <f t="shared" si="8"/>
+        <v>7.1783044130077798</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +2367,7 @@
         <v>1.3952440853186336</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:R3" si="1">100*(L3-L9)/L3</f>
+        <f t="shared" ref="P3:Q3" si="1">100*(L3-L9)/L3</f>
         <v>-1.4028762070537408</v>
       </c>
       <c r="Q3" s="1">
@@ -1886,15 +2404,15 @@
         <v>42.54</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="2">0.66*A4+0.16*B4+0.16*C4</f>
+        <f t="shared" ref="K4:K7" si="2">0.66*A4+0.16*B4+0.16*C4</f>
         <v>37.173400000000001</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L8" si="3">0.66*B4+0.16*C4+0.16*D4</f>
+        <f t="shared" ref="L4:L7" si="3">0.66*B4+0.16*C4+0.16*D4</f>
         <v>38.243800000000007</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M8" si="4">0.66*C4+0.16*D4+0.16*E4</f>
+        <f t="shared" ref="M4:M7" si="4">0.66*C4+0.16*D4+0.16*E4</f>
         <v>39.462400000000002</v>
       </c>
       <c r="O4" s="1">

--- a/vq_expiriments.xlsx
+++ b/vq_expiriments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Φύλλο3" sheetId="3" r:id="rId3"/>
     <sheet name="Φύλλο4" sheetId="4" r:id="rId4"/>
     <sheet name="Φύλλο5" sheetId="5" r:id="rId5"/>
+    <sheet name="Φύλλο6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>test1</t>
   </si>
@@ -44,18 +45,9 @@
     <t>test5</t>
   </si>
   <si>
-    <t>KKZ</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
     <t>FastNN</t>
   </si>
   <si>
-    <t>Simple</t>
-  </si>
-  <si>
     <t>YI</t>
   </si>
   <si>
@@ -222,6 +214,66 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>kkz</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>KKZ vs Random Duration</t>
+  </si>
+  <si>
+    <t>Intra Y</t>
+  </si>
+  <si>
+    <t>Intra UV</t>
+  </si>
+  <si>
+    <t>Inter Y</t>
+  </si>
+  <si>
+    <t>Inter UV</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Τύπος</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Εντροπία</t>
+  </si>
+  <si>
+    <t>PSNR(dB)</t>
+  </si>
+  <si>
+    <t>Επαναλήψεις</t>
+  </si>
+  <si>
+    <t>Διάρκεια</t>
+  </si>
+  <si>
+    <t>IntraY</t>
+  </si>
+  <si>
+    <t>IntraUV</t>
+  </si>
+  <si>
+    <t>InterY</t>
+  </si>
+  <si>
+    <t>InterUV</t>
   </si>
 </sst>
 </file>
@@ -262,16 +314,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -354,11 +409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="60852224"/>
-        <c:axId val="46779776"/>
+        <c:axId val="128737280"/>
+        <c:axId val="105478912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60852224"/>
+        <c:axId val="128737280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46779776"/>
+        <c:crossAx val="105478912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -375,7 +430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46779776"/>
+        <c:axId val="105478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60852224"/>
+        <c:crossAx val="128737280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -490,11 +545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79756800"/>
-        <c:axId val="134586368"/>
+        <c:axId val="128738816"/>
+        <c:axId val="128098880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79756800"/>
+        <c:axId val="128738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134586368"/>
+        <c:crossAx val="128098880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134586368"/>
+        <c:axId val="128098880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -542,7 +597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79756800"/>
+        <c:crossAx val="128738816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -691,19 +746,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>142.09276833587199</c:v>
+                  <c:v>159.22220719539197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.049750342655997</c:v>
+                  <c:v>101.294211215616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.81204880895999</c:v>
+                  <c:v>149.29772486655997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440.38156677734401</c:v>
+                  <c:v>461.014733904384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.160359586303997</c:v>
+                  <c:v>75.327758370943997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,19 +801,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>115.183584</c:v>
+                  <c:v>130.46439342080001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.658749081600007</c:v>
+                  <c:v>83.013457920000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.0335085568</c:v>
+                  <c:v>122.30834606080001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>359.50003107839996</c:v>
+                  <c:v>377.90644223999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.358501555199993</c:v>
+                  <c:v>61.6731742208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,11 +828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110973440"/>
-        <c:axId val="96893120"/>
+        <c:axId val="129798144"/>
+        <c:axId val="128100608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110973440"/>
+        <c:axId val="129798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96893120"/>
+        <c:crossAx val="128100608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -814,7 +869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96893120"/>
+        <c:axId val="128100608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110973440"/>
+        <c:crossAx val="129798144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -876,20 +931,802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>KKZ vs Random Duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο6!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kkz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο6!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="128738304"/>
+        <c:axId val="128102912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="128738304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128102912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128102912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128738304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n=100000,d=16,k=65536</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο6!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kkz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο6!$M$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Intra Y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intra UV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Inter Y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Inter UV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο6!$M$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο6!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Φύλλο6!$M$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Intra Y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Intra UV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Inter Y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Inter UV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο6!$M$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="129801728"/>
+        <c:axId val="128105216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="129801728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>codebook types</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128105216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128105216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129801728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FastNN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Full Search</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο6!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FastNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο6!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο6!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="130310144"/>
+        <c:axId val="130245760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="130310144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130245760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130245760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130310144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -910,16 +1747,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -968,6 +1805,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Γράφημα 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Γράφημα 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Γράφημα 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1265,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1291,15 +2223,15 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>38.798999999999999</v>
@@ -1320,7 +2252,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>1.542</v>
@@ -1341,7 +2273,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>4.2999999999999997E-2</v>
@@ -1362,7 +2294,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>2.1999999999999999E-2</v>
@@ -1391,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,22 +2346,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -1451,31 +2383,31 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1740,25 +2672,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1778,8 +2710,8 @@
         <v>8646112</v>
       </c>
       <c r="E11" s="3">
-        <f>0.5*(I4+J4)*E4/16-16*H11</f>
-        <v>2810464</v>
+        <f>0.5*(I4+J4)*E4/16-8*H11</f>
+        <v>4323056</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1790,7 +2722,7 @@
       </c>
       <c r="N11" s="1">
         <f>16*(B21*B11+C21*C11+D21*D11+E21*E11)/10^6</f>
-        <v>115.183584</v>
+        <v>130.46439342080001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1810,8 +2742,8 @@
         <v>5532768</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ref="E12:E15" si="6">0.5*(I5+J5)*E5/16-16*H12</f>
-        <v>2038368</v>
+        <f t="shared" ref="E12:E15" si="6">0.5*(I5+J5)*E5/16-8*H12</f>
+        <v>2766384</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1822,7 +2754,7 @@
       </c>
       <c r="N12" s="1">
         <f>16*(B22*B12+C22*C12+D22*D12+E22*E12)/10^6</f>
-        <v>75.658749081600007</v>
+        <v>83.013457920000008</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1843,7 +2775,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="6"/>
-        <v>2217728</v>
+        <v>4026688</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1854,7 +2786,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" ref="N13:N15" si="7">16*(B23*B13+C23*C13+D23*D13+E23*E13)/10^6</f>
-        <v>104.0335085568</v>
+        <v>122.30834606080001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1875,7 +2807,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="6"/>
-        <v>10871232</v>
+        <v>12693216</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1886,7 +2818,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="7"/>
-        <v>359.50003107839996</v>
+        <v>377.90644223999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1907,7 +2839,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="6"/>
-        <v>474160</v>
+        <v>1990104</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1917,71 +2849,71 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="7"/>
-        <v>46.358501555199993</v>
+        <v>61.6731742208</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="N17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N18" s="1">
         <f>16*(F21*B11+G21*C11+H21*D11+I21*E11)/10^6</f>
-        <v>142.09276833587199</v>
+        <v>159.22220719539197</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N19" s="1">
         <f>16*(F22*B12+G22*C12+H22*D12+I22*E12)/10^6</f>
-        <v>93.049750342655997</v>
+        <v>101.294211215616</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="N20" s="1">
         <f>16*(F23*B13+G23*C13+H23*D13+I23*E13)/10^6</f>
-        <v>128.81204880895999</v>
+        <v>149.29772486655997</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
         <v>0.54</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.64339999999999997</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.54430000000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.63139999999999996</v>
       </c>
       <c r="F21" s="3">
@@ -1998,23 +2930,23 @@
       </c>
       <c r="N21" s="1">
         <f>16*(F24*B14+G24*C14+H24*D14+I24*E14)/10^6</f>
-        <v>440.38156677734401</v>
+        <v>461.014733904384</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4">
         <v>0.54</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>0.64339999999999997</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.54430000000000001</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.63139999999999996</v>
       </c>
       <c r="F22" s="3">
@@ -2031,23 +2963,23 @@
       </c>
       <c r="N22" s="1">
         <f>16*(F25*B15+G25*C15+H25*D15+I25*E15)/10^6</f>
-        <v>58.160359586303997</v>
+        <v>75.327758370943997</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
         <v>0.54</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.64339999999999997</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>0.54430000000000001</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.63139999999999996</v>
       </c>
       <c r="F23" s="3">
@@ -2065,18 +2997,18 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5">
+        <v>30</v>
+      </c>
+      <c r="B24" s="4">
         <v>0.54</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>0.64339999999999997</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>0.54430000000000001</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.63139999999999996</v>
       </c>
       <c r="F24" s="3">
@@ -2092,26 +3024,26 @@
         <v>0.707785</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
         <v>0.54</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>0.64339999999999997</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>0.54430000000000001</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.63139999999999996</v>
       </c>
       <c r="F25" s="3">
@@ -2128,35 +3060,35 @@
       </c>
       <c r="N25" s="1">
         <f>100-N11/N4*100</f>
-        <v>26.932151105004436</v>
+        <v>17.23861809467337</v>
       </c>
       <c r="O25" s="1">
         <f>AVERAGE(N25:N29)</f>
-        <v>16.135405135702278</v>
+        <v>2.8816164253980245</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N26" s="1">
         <f t="shared" ref="N26:N29" si="8">100-N12/N5*100</f>
-        <v>4.7780306200454703</v>
+        <v>-4.4783986536302223</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N27" s="1">
         <f t="shared" si="8"/>
-        <v>31.267752119468696</v>
+        <v>19.19403972885398</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N28" s="1">
         <f t="shared" si="8"/>
-        <v>10.520787420985016</v>
+        <v>5.9394493548795708</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N29" s="1">
         <f t="shared" si="8"/>
-        <v>7.1783044130077798</v>
+        <v>-23.485626397786575</v>
       </c>
     </row>
   </sheetData>
@@ -2170,94 +3102,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="2">
-        <v>147.5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>0.01</v>
+        <v>56160000</v>
+      </c>
+      <c r="D2">
+        <v>65536</v>
       </c>
       <c r="E2">
-        <v>9.6999999999999993</v>
+        <v>0.712229</v>
       </c>
       <c r="F2">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+        <v>33.6</v>
+      </c>
+      <c r="G2">
+        <v>3249</v>
+      </c>
+      <c r="H2">
+        <v>12154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="2">
-        <v>63.7</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>28080000</v>
+      </c>
+      <c r="D3">
+        <v>65536</v>
       </c>
       <c r="E3">
-        <v>6.1</v>
+        <v>0.74307100000000004</v>
       </c>
       <c r="F3">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
+        <v>42.1</v>
+      </c>
+      <c r="G3">
+        <v>2697</v>
+      </c>
+      <c r="H3">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="2">
-        <v>42.494</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>42117616</v>
+      </c>
+      <c r="D4">
+        <v>65536</v>
       </c>
       <c r="E4">
-        <v>4.4000000000000004</v>
+        <v>0.692577</v>
       </c>
       <c r="F4">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
+        <v>40.5</v>
+      </c>
+      <c r="G4">
+        <v>3270</v>
+      </c>
+      <c r="H4">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="2">
-        <v>36.738</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>1E-3</v>
+        <v>21058808</v>
+      </c>
+      <c r="D5">
+        <v>65536</v>
       </c>
       <c r="E5">
-        <v>3.2</v>
+        <v>0.707785</v>
       </c>
       <c r="F5">
-        <v>12.3</v>
+        <v>48.1</v>
+      </c>
+      <c r="G5">
+        <v>4221</v>
+      </c>
+      <c r="H5">
+        <v>8509</v>
       </c>
     </row>
   </sheetData>
@@ -2290,36 +3278,36 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2589,7 +3577,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2612,13 +3600,13 @@
         <v>43.87</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>45.14</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <f>0.66*A9+0.16*B9+0.16*C9</f>
@@ -2653,13 +3641,13 @@
         <v>43.28</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>43.01</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10:K13" si="9">0.66*A10+0.16*B10+0.16*C10</f>
@@ -2694,13 +3682,13 @@
         <v>43.76</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>43.74</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
@@ -2735,13 +3723,13 @@
         <v>47.75</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>47.42</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <f t="shared" si="9"/>
@@ -2776,13 +3764,13 @@
         <v>49.65</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>50.46</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
@@ -2815,4 +3803,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>90.5</v>
+      </c>
+      <c r="C3">
+        <v>63.7</v>
+      </c>
+      <c r="D3">
+        <v>42.9</v>
+      </c>
+      <c r="E3">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>0.43</v>
+      </c>
+      <c r="N3">
+        <v>0.18</v>
+      </c>
+      <c r="O3">
+        <v>0.16</v>
+      </c>
+      <c r="P3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>61.5</v>
+      </c>
+      <c r="C4">
+        <v>31.2</v>
+      </c>
+      <c r="D4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E4">
+        <v>12.3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>2.71</v>
+      </c>
+      <c r="N4">
+        <v>0.94</v>
+      </c>
+      <c r="O4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C24">
+        <v>6.1</v>
+      </c>
+      <c r="D24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E24">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>61.4</v>
+      </c>
+      <c r="C25">
+        <v>31.2</v>
+      </c>
+      <c r="D25">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E25">
+        <v>12.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/vq_expiriments.xlsx
+++ b/vq_expiriments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>test1</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>InterUV</t>
+  </si>
+  <si>
+    <t>clusters frequency</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -409,11 +411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128737280"/>
-        <c:axId val="105478912"/>
+        <c:axId val="129122816"/>
+        <c:axId val="96369408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128737280"/>
+        <c:axId val="129122816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105478912"/>
+        <c:crossAx val="96369408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -430,7 +432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105478912"/>
+        <c:axId val="96369408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,14 +455,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128737280"/>
+        <c:crossAx val="129122816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -492,7 +493,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -545,11 +545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128738816"/>
-        <c:axId val="128098880"/>
+        <c:axId val="129123840"/>
+        <c:axId val="128164416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128738816"/>
+        <c:axId val="129123840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128098880"/>
+        <c:crossAx val="128164416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -566,7 +566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128098880"/>
+        <c:axId val="128164416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -590,14 +590,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128738816"/>
+        <c:crossAx val="129123840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -644,7 +643,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -828,11 +826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129798144"/>
-        <c:axId val="128100608"/>
+        <c:axId val="129125888"/>
+        <c:axId val="128166144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129798144"/>
+        <c:axId val="129125888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,14 +852,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128100608"/>
+        <c:crossAx val="128166144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128100608"/>
+        <c:axId val="128166144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,14 +893,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129798144"/>
+        <c:crossAx val="129125888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,7 +912,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -964,7 +959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1099,11 +1093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128738304"/>
-        <c:axId val="128102912"/>
+        <c:axId val="129867264"/>
+        <c:axId val="128168448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128738304"/>
+        <c:axId val="129867264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,14 +1120,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128102912"/>
+        <c:crossAx val="128168448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128102912"/>
+        <c:axId val="128168448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,21 +1157,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128738304"/>
+        <c:crossAx val="129867264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1224,7 +1215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1357,11 +1347,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129801728"/>
-        <c:axId val="128105216"/>
+        <c:axId val="130007552"/>
+        <c:axId val="128170752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129801728"/>
+        <c:axId val="130007552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,13 +1373,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128105216"/>
+        <c:crossAx val="128170752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1397,7 +1386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128105216"/>
+        <c:axId val="128170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,21 +1410,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129801728"/>
+        <c:crossAx val="130007552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1485,7 +1472,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1620,11 +1606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130310144"/>
-        <c:axId val="130245760"/>
+        <c:axId val="130008064"/>
+        <c:axId val="130311296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130310144"/>
+        <c:axId val="130008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,14 +1632,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130245760"/>
+        <c:crossAx val="130311296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130245760"/>
+        <c:axId val="130311296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,21 +1669,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130310144"/>
+        <c:crossAx val="130008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2323,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
@@ -3102,10 +3085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,11 +3097,13 @@
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -3132,19 +3117,22 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -3158,19 +3146,23 @@
         <v>65536</v>
       </c>
       <c r="E2">
+        <f>C2/D2</f>
+        <v>856.93359375</v>
+      </c>
+      <c r="F2">
         <v>0.712229</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>33.6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3249</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -3184,19 +3176,23 @@
         <v>65536</v>
       </c>
       <c r="E3">
+        <f>C3/D3</f>
+        <v>428.466796875</v>
+      </c>
+      <c r="F3">
         <v>0.74307100000000004</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>42.1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2697</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3119</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -3210,19 +3206,23 @@
         <v>65536</v>
       </c>
       <c r="E4">
+        <f>C4/D4</f>
+        <v>642.663818359375</v>
+      </c>
+      <c r="F4">
         <v>0.692577</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>40.5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3270</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3236,15 +3236,19 @@
         <v>65536</v>
       </c>
       <c r="E5">
+        <f>C5/D5</f>
+        <v>321.3319091796875</v>
+      </c>
+      <c r="F5">
         <v>0.707785</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>48.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4221</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8509</v>
       </c>
     </row>
